--- a/FSP_Exchange/data/Trisomy/2_FMF_UK_A6_cv__ds_ntphcgbafp_2A6.xlsx
+++ b/FSP_Exchange/data/Trisomy/2_FMF_UK_A6_cv__ds_ntphcgbafp_2A6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glohezic\DEV\CLINICAL_VALIDATIONS\1T_TRISO\2_FMF_UK_A6\feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/Trisomy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36640259-5727-44C5-9C0A-89D20EDD19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{36640259-5727-44C5-9C0A-89D20EDD19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1C9936A-C5DE-43EC-9E29-575E19C88249}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original_data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FSP output'!$A$1:$Q$375</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1402,7 +1415,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1458,12 +1471,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1765,7 +1789,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -30766,10 +30790,10 @@
   <dimension ref="A1:Q375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -46177,6 +46201,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q375" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>